--- a/Nhóm-10-Bảng-kế-hoạch.xlsx
+++ b/Nhóm-10-Bảng-kế-hoạch.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project-GiaPha\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Gia Pha\Tao-Cay-Gia-Pha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5792D36-F429-4FBC-B471-7C31DC596DCE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C02064-A90B-4BEA-BC49-BB36742FFDE9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="150">
   <si>
     <t>DOB</t>
   </si>
@@ -58,69 +58,9 @@
     <t>Võ Thành Văn</t>
   </si>
   <si>
-    <t>In menu</t>
-  </si>
-  <si>
-    <t>Cấu trúc cây gia phả</t>
-  </si>
-  <si>
-    <t>Định nghĩa 1 cây gia phả</t>
-  </si>
-  <si>
-    <t>Cấu trúc 1 người</t>
-  </si>
-  <si>
-    <t>Lưu thông tin cơ bản của 1 người</t>
-  </si>
-  <si>
-    <t>Nhập thông tin</t>
-  </si>
-  <si>
-    <t>Cho phép nhập thông tin 1 cây gia phả</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghi thông tin </t>
-  </si>
-  <si>
-    <t>Ghi lại thông tin của 1 cây gia phả vừa nhập</t>
-  </si>
-  <si>
-    <t>In thông tin</t>
-  </si>
-  <si>
-    <t>Xuất ra màn hình thông tin 1 cây gia phả dưới dạng danh sách</t>
-  </si>
-  <si>
     <t>Nguyễn Lê Nguyên Anh</t>
   </si>
   <si>
-    <t>In mô phỏng</t>
-  </si>
-  <si>
-    <t>Xuất ra màn hình sơ lược về cây gia phả</t>
-  </si>
-  <si>
-    <t>Tìm kiếm 1 người</t>
-  </si>
-  <si>
-    <t>In thông tin 1 người</t>
-  </si>
-  <si>
-    <t>Xuất ra màn hình thông tin của 1 người</t>
-  </si>
-  <si>
-    <t>Thêm 1 người</t>
-  </si>
-  <si>
-    <t>In thế hệ</t>
-  </si>
-  <si>
-    <t>Xuất ra màn hình tất cả thông tin của những người cùng thế hệ</t>
-  </si>
-  <si>
-    <t>In con cháu</t>
-  </si>
-  <si>
     <t>…</t>
   </si>
   <si>
@@ -292,30 +232,6 @@
     <t>Tien si Hat nhan</t>
   </si>
   <si>
-    <t>Nhập và ghi lại thông tin của người cần thêm vào gia phả</t>
-  </si>
-  <si>
-    <t>In cha mẹ</t>
-  </si>
-  <si>
-    <t>Xuất ra màn hình thế hệ con cháu của 1 người</t>
-  </si>
-  <si>
-    <t>Xuất ra màn hình cha mẹ của 1 người</t>
-  </si>
-  <si>
-    <t>In thế hệ trước</t>
-  </si>
-  <si>
-    <t>Xuất ra màn hình các thế hệ trước đó của 1 người</t>
-  </si>
-  <si>
-    <t>Xuất ra màn hình tên những người trưởng của từng thế hệ</t>
-  </si>
-  <si>
-    <t>In người đứng đầu các thế hệ</t>
-  </si>
-  <si>
     <t>DANH SÁCH CÔNG VIỆC</t>
   </si>
   <si>
@@ -328,9 +244,6 @@
     <t>Thêm vào giữa thế hệ và thế hệ cuối</t>
   </si>
   <si>
-    <t>Kiểm tra và tìm kiếm thông tin của 1 người (nếu có trong gia phả)</t>
-  </si>
-  <si>
     <t>Cây gia phả theo ý người dùng</t>
   </si>
   <si>
@@ -481,18 +394,9 @@
     <t>Huynh Tieu Phung</t>
   </si>
   <si>
-    <t>Hien to</t>
-  </si>
-  <si>
     <t>Tang to</t>
   </si>
   <si>
-    <t xml:space="preserve">Duong Khac </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hien </t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -508,97 +412,91 @@
     <t>Ngày kết thúc (thực tế)</t>
   </si>
   <si>
-    <t>23/9/2018</t>
-  </si>
-  <si>
-    <t>14/9/2018</t>
-  </si>
-  <si>
-    <t>17/9/2018</t>
-  </si>
-  <si>
-    <t>17/10/2018</t>
-  </si>
-  <si>
-    <t>13/10/2018</t>
-  </si>
-  <si>
-    <t>14/10/2018</t>
-  </si>
-  <si>
-    <t>30/9/2018</t>
-  </si>
-  <si>
-    <t>18/10/2018</t>
-  </si>
-  <si>
-    <t>16/10/2018</t>
-  </si>
-  <si>
-    <t>20/10/2018</t>
-  </si>
-  <si>
-    <t>Tạo giao diện</t>
-  </si>
-  <si>
     <t>Kiểm thử</t>
   </si>
   <si>
-    <t>Chạy chương trình, kiểm tra và sửa lỗi</t>
-  </si>
-  <si>
-    <t>25/10/2018</t>
-  </si>
-  <si>
-    <t>Làm báo cáo</t>
-  </si>
-  <si>
-    <t>Báo cáo file word và powerpoint</t>
-  </si>
-  <si>
-    <t>28/9/2018</t>
-  </si>
-  <si>
-    <t>27/10/2018</t>
-  </si>
-  <si>
-    <t>Hiển thị những việc muốn làm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đọc dữ liệu gia phả </t>
-  </si>
-  <si>
-    <t>Kết nối dữ liệu gia phả từ My SQL</t>
-  </si>
-  <si>
-    <t>26/9/2018</t>
-  </si>
-  <si>
-    <t>27/9/2018</t>
-  </si>
-  <si>
-    <t>Tạo giao diện bằng C#</t>
-  </si>
-  <si>
-    <t>Tạo dữ liệu</t>
-  </si>
-  <si>
-    <t>Nhập dữ liệu trên My SQL Server</t>
-  </si>
-  <si>
-    <t>21/9/2018</t>
-  </si>
-  <si>
-    <t>20/9/2018</t>
-  </si>
-  <si>
     <t>Trần Gia Hân</t>
+  </si>
+  <si>
+    <t>Xem chi tiết gia phả dưới dạng danh sách</t>
+  </si>
+  <si>
+    <t>Kết nối dữ liệu có sẵn từ SQL</t>
+  </si>
+  <si>
+    <t>Xem cây dưới dạng Treeview</t>
+  </si>
+  <si>
+    <t>Tìm kiếm người</t>
+  </si>
+  <si>
+    <t>Tạo cấu trúc cây</t>
+  </si>
+  <si>
+    <t>Cho phép người dùng nhập tạo cây mới</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đọc thông tin vừa ghi lại </t>
+  </si>
+  <si>
+    <t>Lưu lại thông tin từ cây vừa nhập</t>
+  </si>
+  <si>
+    <t>Thêm 1 người vào cây</t>
+  </si>
+  <si>
+    <t>Tạo cây gia phả mới</t>
+  </si>
+  <si>
+    <t>Mẫu cây gia phả có sẵn</t>
+  </si>
+  <si>
+    <t>Tạo mô hình cây gia phả</t>
+  </si>
+  <si>
+    <t>Xem cây dưới dạng danh sách</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xem những những cùng thế hệ </t>
+  </si>
+  <si>
+    <t>Xem thế hệ con cháu của người nào đó</t>
+  </si>
+  <si>
+    <t>Tìm kiếm người trong gia phả (nếu có)</t>
+  </si>
+  <si>
+    <t>Xem thông tin chi tiết từng người trong Treeview</t>
+  </si>
+  <si>
+    <t>Xem thông tin chi tiết của những người cùng thế hệ</t>
+  </si>
+  <si>
+    <t>NỘI DUNG CHI TIẾT CÔNG VIỆC</t>
+  </si>
+  <si>
+    <t>Báo cáo</t>
+  </si>
+  <si>
+    <t>Kiểm tra và format chương trình</t>
+  </si>
+  <si>
+    <t>Báo cáo file Powerpoint</t>
+  </si>
+  <si>
+    <t>Báo cáo file Word</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xem thông tin ông bà của người đó </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+  </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -726,7 +624,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -941,128 +839,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="hair">
@@ -1085,54 +861,91 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
+      <left style="thin">
+        <color theme="4"/>
       </left>
-      <right style="dashed">
-        <color auto="1"/>
+      <right style="thin">
+        <color theme="4"/>
       </right>
       <top style="hair">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="dashed">
-        <color auto="1"/>
+      <left style="thin">
+        <color theme="4"/>
       </left>
-      <right style="dashed">
-        <color auto="1"/>
+      <right style="thin">
+        <color theme="4"/>
       </right>
-      <top style="hair">
+      <top style="thick">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
+      <bottom style="hair">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="dashed">
-        <color auto="1"/>
+      <left style="thin">
+        <color theme="4"/>
       </left>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="hair">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="dashed">
+      <left style="thick">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thick">
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="hair">
         <color auto="1"/>
       </top>
       <bottom style="hair">
@@ -1141,41 +954,134 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dashed">
-        <color auto="1"/>
+      <left style="thin">
+        <color theme="4"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
+      <right style="thin">
+        <color theme="4"/>
       </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="dashed">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color rgb="FF0070C0"/>
       </left>
-      <right style="dashed">
-        <color auto="1"/>
+      <right style="medium">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
       </right>
       <top style="hair">
         <color auto="1"/>
@@ -1184,33 +1090,33 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dashed">
-        <color auto="1"/>
+      <left style="thin">
+        <color theme="4"/>
       </left>
-      <right style="dashed">
+      <right style="thick">
         <color auto="1"/>
       </right>
-      <top style="hair">
-        <color auto="1"/>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
       </top>
-      <bottom/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="dashed">
+      <left style="thick">
         <color auto="1"/>
       </left>
       <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color auto="1"/>
+      <right style="thin">
+        <color theme="4"/>
       </right>
       <top style="hair">
         <color auto="1"/>
@@ -1218,71 +1124,6 @@
       <bottom style="hair">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="dashed">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1290,7 +1131,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1353,281 +1194,227 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="15" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1651,11 +1438,13 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="21" formatCode="dd\-mmm"/>
+      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thick">
           <color auto="1"/>
         </right>
         <top style="hair">
@@ -1668,136 +1457,6 @@
         <horizontal style="hair">
           <color auto="1"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="21" formatCode="dd\-mmm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="dashed">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="21" formatCode="dd\-mmm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="dashed">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="21" formatCode="dd\-mmm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="dashed">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="dashed">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2510,19 +2169,134 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="dashed">
-          <color auto="1"/>
+        <left style="thin">
+          <color theme="4"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
         <top style="hair">
           <color auto="1"/>
         </top>
         <bottom style="hair">
           <color auto="1"/>
         </bottom>
-        <vertical/>
+        <vertical style="thin">
+          <color theme="4"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="4"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="4"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="4"/>
+        </vertical>
         <horizontal style="hair">
           <color auto="1"/>
         </horizontal>
@@ -2545,6 +2319,52 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <vertical style="thin">
+          <color theme="4"/>
+        </vertical>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="4"/>
+        </vertical>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2563,17 +2383,22 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="dashed">
-          <color auto="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
         <top style="hair">
           <color auto="1"/>
         </top>
         <bottom style="hair">
           <color auto="1"/>
         </bottom>
+        <vertical style="thin">
+          <color theme="4"/>
+        </vertical>
       </border>
     </dxf>
     <dxf>
@@ -2593,6 +2418,17 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <vertical style="thin">
+          <color theme="4"/>
+        </vertical>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2611,13 +2447,39 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <vertical style="thin">
+          <color theme="4"/>
+        </vertical>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <vertical style="thin">
+          <color theme="4"/>
+        </vertical>
+      </border>
     </dxf>
     <dxf>
-      <border outline="0">
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="dashed">
+          <color auto="1"/>
+        </right>
         <top style="thick">
           <color auto="1"/>
         </top>
@@ -2629,7 +2491,7 @@
     <dxf>
       <border>
         <bottom style="thick">
-          <color auto="1"/>
+          <color rgb="FF0070C0"/>
         </bottom>
       </border>
     </dxf>
@@ -2651,11 +2513,17 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
+        <left style="medium">
+          <color rgb="FF0070C0"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF0070C0"/>
+        </right>
         <top/>
         <bottom/>
-        <vertical/>
+        <vertical style="medium">
+          <color rgb="FF0070C0"/>
+        </vertical>
         <horizontal/>
       </border>
     </dxf>
@@ -2673,19 +2541,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A2:K23" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35">
-  <autoFilter ref="A2:K23" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A2:K25" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35">
+  <autoFilter ref="A2:K25" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="STT" dataDxfId="34"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DANH SÁCH CÔNG VIỆC" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Nhập và ghi lại thông tin của người cần thêm vào gia phả" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="NỘI DUNG CHI TIẾT CÔNG VIỆC" dataDxfId="32"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Nguyễn Lê Nguyên Anh" dataDxfId="31"/>
-    <tableColumn id="12" xr3:uid="{0921F172-22AF-4D48-BB40-4D1750CEFAA0}" name="Trần Gia Hân" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Võ Thành Văn" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="GHI CHÚ" dataDxfId="29"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Ngày bắt đầu (dự kiến)" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Ngày kết thúc (dự kiến)" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Ngày bắt đầu (thực tế)" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{0921F172-22AF-4D48-BB40-4D1750CEFAA0}" name="Trần Gia Hân" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Võ Thành Văn" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="GHI CHÚ" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Ngày bắt đầu (dự kiến)" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Ngày kết thúc (dự kiến)" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Ngày bắt đầu (thực tế)" dataDxfId="25"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Ngày kết thúc (thực tế)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2693,29 +2561,29 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:T1048569" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25">
-  <autoFilter ref="A1:T1048569" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:T1048560" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21">
+  <autoFilter ref="A1:T1048560" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="THE HE" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HO VA TEN" dataDxfId="23"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="CHUC VU" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="DOB" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="NAM MAT" dataDxfId="20"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="GIOI TINH" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="TEN CHA" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="TEN ME" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="TT TRONG GD" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="TEN ANH" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="TEN CHI" dataDxfId="14"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" name="TEN EM TRAI" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="TEN EM GAI" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="HON NHAN" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="TEN VO - CHONG" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="SO CON" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="CON TRAI" dataDxfId="8"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="CON GAI" dataDxfId="7"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="CONG TRANG" dataDxfId="6"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="PHAN MO" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="THE HE" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HO VA TEN" dataDxfId="19"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="CHUC VU" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="DOB" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="NAM MAT" dataDxfId="16"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="GIOI TINH" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="TEN CHA" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="TEN ME" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="TT TRONG GD" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="TEN ANH" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="TEN CHI" dataDxfId="10"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" name="TEN EM TRAI" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="TEN EM GAI" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="HON NHAN" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="TEN VO - CHONG" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="SO CON" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="CON TRAI" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="CON GAI" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="CONG TRANG" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="PHAN MO" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium28" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2984,926 +2852,766 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA23"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7" style="31" customWidth="1"/>
+    <col min="1" max="1" width="7" style="23" customWidth="1"/>
     <col min="2" max="2" width="30.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="58.109375" style="32" customWidth="1"/>
-    <col min="4" max="5" width="25.77734375" style="82" customWidth="1"/>
-    <col min="6" max="6" width="25.77734375" style="33" customWidth="1"/>
-    <col min="7" max="7" width="33.21875" style="33" hidden="1" customWidth="1"/>
-    <col min="8" max="11" width="25.77734375" style="113" customWidth="1"/>
-    <col min="13" max="16" width="25.77734375" style="33" customWidth="1"/>
-    <col min="17" max="27" width="8.77734375" style="1"/>
+    <col min="3" max="3" width="42.5546875" style="24" customWidth="1"/>
+    <col min="4" max="5" width="25.77734375" style="55" customWidth="1"/>
+    <col min="6" max="6" width="25.77734375" style="25" customWidth="1"/>
+    <col min="7" max="7" width="33.21875" style="25" hidden="1" customWidth="1"/>
+    <col min="8" max="11" width="14.77734375" style="89" customWidth="1"/>
+    <col min="12" max="22" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="21" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:22" s="21" customFormat="1" ht="34.200000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="97"/>
-    </row>
-    <row r="2" spans="1:27" s="21" customFormat="1" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="92"/>
+    </row>
+    <row r="2" spans="1:22" s="21" customFormat="1" ht="43.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="54" t="s">
-        <v>184</v>
-      </c>
-      <c r="F2" s="54" t="s">
+      <c r="B2" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="76" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="H2" s="100" t="s">
-        <v>152</v>
-      </c>
-      <c r="I2" s="100" t="s">
-        <v>153</v>
-      </c>
-      <c r="J2" s="100" t="s">
-        <v>154</v>
-      </c>
-      <c r="K2" s="101" t="s">
-        <v>155</v>
-      </c>
-      <c r="M2" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="N2" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="O2" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="P2" s="54" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" s="29" customFormat="1" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="84">
+      <c r="G2" s="76" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="J2" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="K2" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="L2" s="94"/>
+    </row>
+    <row r="3" spans="1:22" s="22" customFormat="1" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="78">
         <v>1</v>
       </c>
-      <c r="B3" s="85" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="86" t="s">
-        <v>179</v>
-      </c>
-      <c r="D3" s="78" t="s">
-        <v>151</v>
-      </c>
-      <c r="E3" s="98"/>
-      <c r="F3" s="94" t="s">
-        <v>151</v>
-      </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="104"/>
-      <c r="M3" s="74" t="s">
-        <v>169</v>
-      </c>
-      <c r="N3" s="92" t="s">
-        <v>177</v>
-      </c>
-      <c r="O3" s="93"/>
-      <c r="P3" s="74" t="s">
-        <v>172</v>
-      </c>
+      <c r="B3" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="59"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="84">
+        <v>43371</v>
+      </c>
+      <c r="I3" s="84">
+        <v>43373</v>
+      </c>
+      <c r="J3" s="84">
+        <v>43369</v>
+      </c>
+      <c r="K3" s="85">
+        <v>43375</v>
+      </c>
+      <c r="L3" s="95"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-    </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24">
+    </row>
+    <row r="4" spans="1:22" s="2" customFormat="1" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="79">
         <v>2</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="106"/>
-      <c r="M4" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="N4" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="O4" s="91" t="s">
-        <v>157</v>
-      </c>
-      <c r="P4" s="51" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" s="29" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="84">
+        <v>43373</v>
+      </c>
+      <c r="I4" s="84">
+        <v>43376</v>
+      </c>
+      <c r="J4" s="84">
+        <v>43377</v>
+      </c>
+      <c r="K4" s="86">
+        <v>43384</v>
+      </c>
+      <c r="L4" s="95"/>
+    </row>
+    <row r="5" spans="1:22" s="22" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="80">
         <v>3</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="D5" s="78" t="s">
-        <v>151</v>
-      </c>
-      <c r="E5" s="78"/>
-      <c r="F5" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="G5" s="52"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="109"/>
-      <c r="M5" s="52" t="s">
-        <v>182</v>
-      </c>
-      <c r="N5" s="89" t="s">
-        <v>183</v>
-      </c>
-      <c r="O5" s="88"/>
-      <c r="P5" s="52" t="s">
-        <v>158</v>
-      </c>
+      <c r="B5" s="61"/>
+      <c r="C5" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="58"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-    </row>
-    <row r="6" spans="1:27" s="29" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27">
+    </row>
+    <row r="6" spans="1:22" s="22" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="80">
         <v>4</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="D6" s="78" t="s">
-        <v>151</v>
-      </c>
-      <c r="E6" s="78"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="110"/>
-      <c r="M6" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="N6" s="83" t="s">
-        <v>178</v>
-      </c>
-      <c r="O6" s="90">
-        <v>43200</v>
-      </c>
-      <c r="P6" s="52" t="s">
-        <v>156</v>
-      </c>
+      <c r="B6" s="61"/>
+      <c r="C6" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="58"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-    </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24">
+    </row>
+    <row r="7" spans="1:22" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="79">
         <v>5</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="61"/>
+      <c r="C7" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="58"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="95"/>
+    </row>
+    <row r="8" spans="1:22" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="79">
+        <v>6</v>
+      </c>
+      <c r="B8" s="61"/>
+      <c r="C8" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="58"/>
+      <c r="F8" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" s="60"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="95"/>
+    </row>
+    <row r="9" spans="1:22" s="22" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="80">
         <v>7</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="78" t="s">
-        <v>151</v>
-      </c>
-      <c r="E7" s="78"/>
-      <c r="F7" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="110"/>
-      <c r="M7" s="83">
-        <v>43169</v>
-      </c>
-      <c r="N7" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="O7" s="75"/>
-      <c r="P7" s="52" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24">
-        <v>6</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="78" t="s">
-        <v>151</v>
-      </c>
-      <c r="E8" s="78"/>
-      <c r="F8" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="110"/>
-      <c r="M8" s="83">
-        <v>43169</v>
-      </c>
-      <c r="N8" s="52"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="52" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" s="29" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27">
-        <v>7</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="77" t="s">
-        <v>151</v>
-      </c>
-      <c r="E9" s="77"/>
-      <c r="F9" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G9" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="110"/>
-      <c r="M9" s="83">
-        <v>43169</v>
-      </c>
-      <c r="N9" s="52"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="52" t="s">
-        <v>156</v>
-      </c>
+      <c r="B9" s="67"/>
+      <c r="C9" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="63"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-    </row>
-    <row r="10" spans="1:27" s="29" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27">
+    </row>
+    <row r="10" spans="1:22" s="22" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="80">
         <v>8</v>
       </c>
-      <c r="B10" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="79" t="s">
-        <v>151</v>
-      </c>
-      <c r="E10" s="79"/>
-      <c r="F10" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G10" s="52"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="110"/>
-      <c r="M10" s="83">
-        <v>43169</v>
-      </c>
-      <c r="N10" s="52"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="52" t="s">
-        <v>156</v>
-      </c>
+      <c r="B10" s="67"/>
+      <c r="C10" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="60"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-    </row>
-    <row r="11" spans="1:27" s="29" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27">
+    </row>
+    <row r="11" spans="1:22" s="22" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="80">
         <v>9</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="78" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11" s="78"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="110"/>
-      <c r="M11" s="83">
-        <v>43291</v>
-      </c>
-      <c r="N11" s="52"/>
-      <c r="O11" s="75"/>
-      <c r="P11" s="83">
-        <v>43200</v>
-      </c>
+      <c r="B11" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="60"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-    </row>
-    <row r="12" spans="1:27" s="29" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27">
+    </row>
+    <row r="12" spans="1:22" s="22" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="80">
         <v>10</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="78" t="s">
-        <v>151</v>
-      </c>
-      <c r="E12" s="78"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="110"/>
-      <c r="M12" s="83">
-        <v>43291</v>
-      </c>
-      <c r="N12" s="52"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="83">
-        <v>43200</v>
-      </c>
+      <c r="B12" s="61"/>
+      <c r="C12" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" s="60"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-    </row>
-    <row r="13" spans="1:27" s="29" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27">
+    </row>
+    <row r="13" spans="1:22" s="22" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="80">
         <v>11</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G13" s="52"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="110"/>
-      <c r="M13" s="83">
-        <v>43291</v>
-      </c>
-      <c r="N13" s="52"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="83">
-        <v>43200</v>
-      </c>
+      <c r="B13" s="61"/>
+      <c r="C13" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" s="60"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-    </row>
-    <row r="14" spans="1:27" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24">
+    </row>
+    <row r="14" spans="1:22" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="79">
         <v>12</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="G14" s="52"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="110"/>
-      <c r="M14" s="83">
-        <v>43291</v>
-      </c>
-      <c r="N14" s="52"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="83">
-        <v>43200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" s="29" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27">
+      <c r="B14" s="61"/>
+      <c r="C14" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="63"/>
+      <c r="F14" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="60"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="95"/>
+    </row>
+    <row r="15" spans="1:22" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="79">
         <v>13</v>
       </c>
-      <c r="B15" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="78" t="s">
-        <v>151</v>
-      </c>
-      <c r="E15" s="78" t="s">
-        <v>151</v>
-      </c>
-      <c r="F15" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="G15" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="110"/>
-      <c r="M15" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="N15" s="52"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="83">
-        <v>43322</v>
-      </c>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-    </row>
-    <row r="16" spans="1:27" s="29" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27">
+      <c r="B15" s="61"/>
+      <c r="C15" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="58"/>
+      <c r="E15" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="64"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="95"/>
+    </row>
+    <row r="16" spans="1:22" s="22" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="80">
         <v>14</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="78" t="s">
-        <v>151</v>
-      </c>
-      <c r="E16" s="78"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="110"/>
-      <c r="M16" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="N16" s="52"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="83">
-        <v>43322</v>
-      </c>
+      <c r="B16" s="61"/>
+      <c r="C16" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-    </row>
-    <row r="17" spans="1:27" s="29" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27">
+    </row>
+    <row r="17" spans="1:22" s="22" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="80">
         <v>15</v>
       </c>
-      <c r="B17" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="G17" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="110"/>
-      <c r="M17" s="52" t="s">
-        <v>160</v>
-      </c>
-      <c r="N17" s="52"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="83">
-        <v>43322</v>
-      </c>
+      <c r="B17" s="61"/>
+      <c r="C17" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-    </row>
-    <row r="18" spans="1:27" s="29" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27">
+    </row>
+    <row r="18" spans="1:22" s="22" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="80">
         <v>16</v>
       </c>
-      <c r="B18" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="78" t="s">
-        <v>151</v>
-      </c>
-      <c r="E18" s="78"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="110"/>
-      <c r="M18" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="N18" s="52"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="52" t="s">
-        <v>161</v>
-      </c>
+      <c r="B18" s="71"/>
+      <c r="C18" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-    </row>
-    <row r="19" spans="1:27" s="29" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27">
+    </row>
+    <row r="19" spans="1:22" s="22" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="80">
         <v>17</v>
       </c>
-      <c r="B19" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="G19" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="110"/>
-      <c r="M19" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="N19" s="52"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="52" t="s">
-        <v>161</v>
-      </c>
+      <c r="B19" s="61"/>
+      <c r="C19" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-    </row>
-    <row r="20" spans="1:27" s="29" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27">
+    </row>
+    <row r="20" spans="1:22" s="22" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="93">
         <v>18</v>
       </c>
-      <c r="B20" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="G20" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="110"/>
-      <c r="M20" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="N20" s="52"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="52" t="s">
-        <v>159</v>
-      </c>
+      <c r="B20" s="61"/>
+      <c r="C20" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="58"/>
+      <c r="E20" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-    </row>
-    <row r="21" spans="1:27" s="29" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="84">
+    </row>
+    <row r="21" spans="1:22" s="22" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="80">
         <v>19</v>
       </c>
-      <c r="B21" s="85" t="s">
-        <v>167</v>
-      </c>
-      <c r="C21" s="86" t="s">
-        <v>168</v>
-      </c>
-      <c r="D21" s="78" t="s">
-        <v>151</v>
-      </c>
-      <c r="E21" s="99" t="s">
-        <v>151</v>
-      </c>
-      <c r="F21" s="87" t="s">
-        <v>151</v>
-      </c>
-      <c r="G21" s="52"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="108"/>
-      <c r="K21" s="109"/>
-      <c r="M21" s="52" t="s">
-        <v>169</v>
-      </c>
-      <c r="N21" s="89"/>
-      <c r="O21" s="88"/>
-      <c r="P21" s="52" t="s">
-        <v>163</v>
-      </c>
+      <c r="B21" s="71"/>
+      <c r="C21" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="72"/>
+      <c r="E21" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-    </row>
-    <row r="22" spans="1:27" s="29" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="84">
+    </row>
+    <row r="22" spans="1:22" s="22" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="80">
         <v>20</v>
       </c>
-      <c r="B22" s="85" t="s">
-        <v>170</v>
-      </c>
-      <c r="C22" s="86" t="s">
-        <v>171</v>
-      </c>
-      <c r="D22" s="78" t="s">
-        <v>151</v>
-      </c>
-      <c r="E22" s="99" t="s">
-        <v>151</v>
-      </c>
-      <c r="F22" s="87" t="s">
-        <v>151</v>
-      </c>
-      <c r="G22" s="52"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="108"/>
-      <c r="K22" s="109"/>
-      <c r="M22" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="N22" s="89"/>
-      <c r="O22" s="88"/>
-      <c r="P22" s="52" t="s">
-        <v>165</v>
-      </c>
+      <c r="B22" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-    </row>
-    <row r="23" spans="1:27" s="29" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="70"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="111"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="112"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="76"/>
-      <c r="P23" s="72"/>
+    </row>
+    <row r="23" spans="1:22" s="22" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="81">
+        <v>21</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="73"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
+    </row>
+    <row r="24" spans="1:22" s="22" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="81">
+        <v>22</v>
+      </c>
+      <c r="B24" s="56"/>
+      <c r="C24" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="58"/>
+      <c r="E24" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="G24" s="60"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+    </row>
+    <row r="25" spans="1:22" s="22" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="61"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3919,7 +3627,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T39"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -3931,7 +3639,7 @@
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="8" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="36" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="28" customWidth="1"/>
     <col min="3" max="3" width="14.88671875" style="5" customWidth="1"/>
     <col min="4" max="5" width="12.77734375" style="10" customWidth="1"/>
     <col min="6" max="6" width="13.21875" style="10" customWidth="1"/>
@@ -3939,85 +3647,85 @@
     <col min="9" max="9" width="17.6640625" style="10" customWidth="1"/>
     <col min="10" max="13" width="20.6640625" style="5" customWidth="1"/>
     <col min="14" max="14" width="13.5546875" style="10" customWidth="1"/>
-    <col min="15" max="15" width="20.6640625" style="40" customWidth="1"/>
+    <col min="15" max="15" width="20.6640625" style="32" customWidth="1"/>
     <col min="16" max="16" width="10.21875" style="10" customWidth="1"/>
-    <col min="17" max="17" width="20.6640625" style="44" customWidth="1"/>
-    <col min="18" max="18" width="20.6640625" style="58" customWidth="1"/>
+    <col min="17" max="17" width="20.6640625" style="36" customWidth="1"/>
+    <col min="18" max="18" width="20.6640625" style="44" customWidth="1"/>
     <col min="19" max="19" width="20.6640625" style="5" customWidth="1"/>
     <col min="20" max="20" width="20.6640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="48" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="45" t="s">
+    <row r="1" spans="1:20" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="45" t="s">
+      <c r="E1" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="T1" s="47" t="s">
-        <v>45</v>
+      <c r="R1" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="39" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>48</v>
+      <c r="B2" s="46" t="s">
+        <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -4025,10 +3733,10 @@
         <v>2</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="I2" s="9">
         <v>1</v>
@@ -4038,71 +3746,71 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="O2" s="37" t="s">
-        <v>71</v>
+        <v>56</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>51</v>
       </c>
       <c r="P2" s="9">
         <v>2</v>
       </c>
-      <c r="Q2" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="R2" s="55"/>
+      <c r="Q2" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="41"/>
       <c r="S2" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="63"/>
-      <c r="C3" s="59"/>
+      <c r="A3" s="49"/>
+      <c r="C3" s="45"/>
       <c r="N3" s="19"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="R3" s="64"/>
-      <c r="S3" s="59"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="50"/>
+      <c r="S3" s="45"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="I4" s="10">
         <v>1</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="O4" s="40" t="s">
-        <v>48</v>
+        <v>56</v>
+      </c>
+      <c r="O4" s="32" t="s">
+        <v>28</v>
       </c>
       <c r="P4" s="10">
         <v>2</v>
       </c>
-      <c r="Q4" s="44" t="s">
-        <v>49</v>
+      <c r="Q4" s="36" t="s">
+        <v>29</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15"/>
-      <c r="B5" s="34"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="16"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -4115,12 +3823,12 @@
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
       <c r="N5" s="17"/>
-      <c r="O5" s="38"/>
+      <c r="O5" s="30"/>
       <c r="P5" s="17"/>
-      <c r="Q5" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="R5" s="56"/>
+      <c r="Q5" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="42"/>
       <c r="S5" s="16"/>
       <c r="T5" s="18"/>
     </row>
@@ -4128,11 +3836,11 @@
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="61" t="s">
-        <v>49</v>
+      <c r="B6" s="47" t="s">
+        <v>29</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
@@ -4140,10 +3848,10 @@
         <v>2</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="I6" s="13">
         <v>1</v>
@@ -4151,98 +3859,98 @@
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M6" s="12"/>
       <c r="N6" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="O6" s="39" t="s">
-        <v>72</v>
+        <v>56</v>
+      </c>
+      <c r="O6" s="31" t="s">
+        <v>52</v>
       </c>
       <c r="P6" s="13">
         <v>2</v>
       </c>
-      <c r="Q6" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="R6" s="57" t="s">
-        <v>52</v>
+      <c r="Q6" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>32</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="T6" s="14" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="62" t="s">
-        <v>50</v>
+      <c r="B7" s="48" t="s">
+        <v>30</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="I7" s="10">
         <v>2</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="O7" s="40" t="s">
-        <v>73</v>
+        <v>56</v>
+      </c>
+      <c r="O7" s="32" t="s">
+        <v>53</v>
       </c>
       <c r="P7" s="10">
         <v>3</v>
       </c>
-      <c r="Q7" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="R7" s="58" t="s">
-        <v>56</v>
+      <c r="Q7" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" s="44" t="s">
+        <v>36</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="59"/>
+      <c r="C8" s="45"/>
       <c r="N8" s="19"/>
-      <c r="Q8" s="44" t="s">
-        <v>54</v>
+      <c r="Q8" s="36" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
-      <c r="B9" s="35" t="s">
-        <v>72</v>
+      <c r="B9" s="27" t="s">
+        <v>52</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="I9" s="13">
         <v>2</v>
@@ -4250,70 +3958,70 @@
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="M9" s="12"/>
       <c r="N9" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="O9" s="39" t="s">
-        <v>49</v>
+        <v>56</v>
+      </c>
+      <c r="O9" s="31" t="s">
+        <v>29</v>
       </c>
       <c r="P9" s="13">
         <v>2</v>
       </c>
-      <c r="Q9" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="R9" s="57" t="s">
-        <v>52</v>
+      <c r="Q9" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" s="43" t="s">
+        <v>32</v>
       </c>
       <c r="S9" s="12"/>
       <c r="T9" s="14" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="36" t="s">
-        <v>73</v>
+      <c r="B10" s="28" t="s">
+        <v>53</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="I10" s="10">
         <v>1</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="O10" s="40" t="s">
-        <v>50</v>
+        <v>56</v>
+      </c>
+      <c r="O10" s="32" t="s">
+        <v>30</v>
       </c>
       <c r="P10" s="10">
         <v>3</v>
       </c>
-      <c r="Q10" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="R10" s="58" t="s">
-        <v>56</v>
+      <c r="Q10" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" s="44" t="s">
+        <v>36</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15"/>
-      <c r="B11" s="34"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -4326,12 +4034,12 @@
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
       <c r="N11" s="17"/>
-      <c r="O11" s="38"/>
+      <c r="O11" s="30"/>
       <c r="P11" s="17"/>
-      <c r="Q11" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="R11" s="56"/>
+      <c r="Q11" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" s="42"/>
       <c r="S11" s="16"/>
       <c r="T11" s="18"/>
     </row>
@@ -4339,11 +4047,11 @@
       <c r="A12" s="11">
         <v>3</v>
       </c>
-      <c r="B12" s="61" t="s">
-        <v>51</v>
+      <c r="B12" s="47" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -4351,10 +4059,10 @@
         <v>2</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="I12" s="13">
         <v>1</v>
@@ -4363,357 +4071,357 @@
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="O12" s="39" t="s">
-        <v>74</v>
+        <v>56</v>
+      </c>
+      <c r="O12" s="31" t="s">
+        <v>54</v>
       </c>
       <c r="P12" s="13">
         <v>2</v>
       </c>
-      <c r="Q12" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="R12" s="57" t="s">
-        <v>55</v>
+      <c r="Q12" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="R12" s="43" t="s">
+        <v>35</v>
       </c>
       <c r="S12" s="12" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="T12" s="14" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="I13" s="10">
         <v>2</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="O13" s="40" t="s">
-        <v>67</v>
+        <v>56</v>
+      </c>
+      <c r="O13" s="32" t="s">
+        <v>47</v>
       </c>
       <c r="P13" s="10">
         <v>1</v>
       </c>
-      <c r="R13" s="58" t="s">
-        <v>58</v>
+      <c r="R13" s="44" t="s">
+        <v>38</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="62" t="s">
-        <v>53</v>
+      <c r="B14" s="48" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>2</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="I14" s="10">
         <v>1</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="P14" s="10">
         <v>0</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="36" t="s">
-        <v>56</v>
+      <c r="B15" s="28" t="s">
+        <v>36</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="I15" s="10">
         <v>2</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="O15" s="40" t="s">
-        <v>69</v>
+        <v>56</v>
+      </c>
+      <c r="O15" s="32" t="s">
+        <v>49</v>
       </c>
       <c r="P15" s="10">
         <v>2</v>
       </c>
-      <c r="Q15" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="R15" s="58" t="s">
-        <v>60</v>
+      <c r="Q15" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="R15" s="44" t="s">
+        <v>40</v>
       </c>
       <c r="T15" s="6" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="62" t="s">
-        <v>54</v>
+      <c r="B16" s="48" t="s">
+        <v>34</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>2</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="I16" s="10">
         <v>1</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="O16" s="40" t="s">
-        <v>75</v>
+        <v>56</v>
+      </c>
+      <c r="O16" s="32" t="s">
+        <v>55</v>
       </c>
       <c r="P16" s="10">
         <v>1</v>
       </c>
-      <c r="Q16" s="44" t="s">
-        <v>61</v>
+      <c r="Q16" s="36" t="s">
+        <v>41</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="36" t="s">
-        <v>74</v>
+      <c r="B17" s="28" t="s">
+        <v>54</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="I17" s="10">
         <v>2</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="O17" s="40" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="O17" s="32" t="s">
+        <v>31</v>
       </c>
       <c r="P17" s="10">
         <v>2</v>
       </c>
-      <c r="Q17" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="R17" s="58" t="s">
-        <v>55</v>
+      <c r="Q17" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="R17" s="44" t="s">
+        <v>35</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="36" t="s">
-        <v>67</v>
+      <c r="B18" s="28" t="s">
+        <v>47</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>2</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="I18" s="10">
         <v>1</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="O18" s="40" t="s">
-        <v>52</v>
+        <v>56</v>
+      </c>
+      <c r="O18" s="32" t="s">
+        <v>32</v>
       </c>
       <c r="P18" s="10">
         <v>1</v>
       </c>
-      <c r="R18" s="58" t="s">
-        <v>58</v>
+      <c r="R18" s="44" t="s">
+        <v>38</v>
       </c>
       <c r="T18" s="6" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="63"/>
-      <c r="B19" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="59"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="45"/>
       <c r="F19" s="10" t="s">
         <v>2</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="I19" s="10">
         <v>1</v>
       </c>
       <c r="N19" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="O19" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="P19" s="63">
+      <c r="O19" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="49">
         <v>2</v>
       </c>
-      <c r="Q19" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="R19" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="S19" s="59" t="s">
-        <v>118</v>
+      <c r="Q19" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="R19" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="S19" s="45" t="s">
+        <v>89</v>
       </c>
       <c r="T19" s="6" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="65"/>
-      <c r="B20" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="66"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="52"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="I20" s="17">
         <v>2</v>
       </c>
       <c r="J20" s="16"/>
       <c r="K20" s="16" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
-      <c r="N20" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="O20" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="P20" s="65">
+      <c r="N20" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="O20" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="P20" s="51">
         <v>1</v>
       </c>
-      <c r="Q20" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="R20" s="68"/>
-      <c r="S20" s="66"/>
+      <c r="Q20" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="R20" s="54"/>
+      <c r="S20" s="52"/>
       <c r="T20" s="18" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>4</v>
       </c>
-      <c r="B21" s="35" t="s">
-        <v>55</v>
+      <c r="B21" s="27" t="s">
+        <v>35</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="I21" s="13">
         <v>1</v>
@@ -4721,215 +4429,215 @@
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="M21" s="12"/>
       <c r="N21" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="O21" s="39" t="s">
-        <v>124</v>
+        <v>56</v>
+      </c>
+      <c r="O21" s="31" t="s">
+        <v>95</v>
       </c>
       <c r="P21" s="13">
         <v>1</v>
       </c>
-      <c r="Q21" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="R21" s="57"/>
+      <c r="Q21" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="R21" s="43"/>
       <c r="S21" s="12"/>
       <c r="T21" s="14" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B22" s="62" t="s">
-        <v>57</v>
+      <c r="B22" s="48" t="s">
+        <v>37</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>2</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="I22" s="10">
         <v>2</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="O22" s="40" t="s">
-        <v>125</v>
+        <v>56</v>
+      </c>
+      <c r="O22" s="32" t="s">
+        <v>96</v>
       </c>
       <c r="P22" s="10">
         <v>2</v>
       </c>
-      <c r="Q22" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="R22" s="58" t="s">
-        <v>130</v>
+      <c r="Q22" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="R22" s="44" t="s">
+        <v>101</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="T22" s="6" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B23" s="36" t="s">
-        <v>58</v>
+      <c r="B23" s="28" t="s">
+        <v>38</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="10" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="I23" s="10">
         <v>1</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="O23" s="40" t="s">
-        <v>126</v>
+        <v>56</v>
+      </c>
+      <c r="O23" s="32" t="s">
+        <v>97</v>
       </c>
       <c r="P23" s="10">
         <v>0</v>
       </c>
       <c r="T23" s="6" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B24" s="62" t="s">
-        <v>59</v>
+      <c r="B24" s="48" t="s">
+        <v>39</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="D24" s="19"/>
       <c r="F24" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="I24" s="10">
         <v>2</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="P24" s="10">
         <v>0</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="T24" s="6" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B25" s="36" t="s">
-        <v>60</v>
+      <c r="B25" s="28" t="s">
+        <v>40</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="10" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="I25" s="10">
         <v>2</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="P25" s="10">
         <v>0</v>
       </c>
       <c r="T25" s="6" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B26" s="62" t="s">
-        <v>61</v>
+      <c r="B26" s="48" t="s">
+        <v>41</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>2</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="I26" s="10">
         <v>3</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="O26" s="40" t="s">
-        <v>127</v>
+        <v>56</v>
+      </c>
+      <c r="O26" s="32" t="s">
+        <v>98</v>
       </c>
       <c r="P26" s="10">
         <v>1</v>
       </c>
-      <c r="Q26" s="44" t="s">
-        <v>131</v>
+      <c r="Q26" s="36" t="s">
+        <v>102</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="T26" s="6" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
-      <c r="B27" s="35" t="s">
-        <v>124</v>
+      <c r="B27" s="27" t="s">
+        <v>95</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
@@ -4938,10 +4646,10 @@
         <v>2</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="I27" s="13">
         <v>1</v>
@@ -4949,250 +4657,141 @@
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="M27" s="12"/>
       <c r="N27" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="O27" s="39" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="O27" s="31" t="s">
+        <v>35</v>
       </c>
       <c r="P27" s="13">
         <v>1</v>
       </c>
-      <c r="Q27" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="R27" s="57"/>
+      <c r="Q27" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="R27" s="43"/>
       <c r="S27" s="12"/>
       <c r="T27" s="14" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="36" t="s">
-        <v>125</v>
+      <c r="B28" s="28" t="s">
+        <v>96</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="I28" s="10">
         <v>2</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="O28" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="O28" s="32" t="s">
+        <v>37</v>
       </c>
       <c r="P28" s="10">
         <v>2</v>
       </c>
-      <c r="Q28" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="R28" s="58" t="s">
-        <v>130</v>
+      <c r="Q28" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="R28" s="44" t="s">
+        <v>101</v>
       </c>
       <c r="T28" s="6" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="36" t="s">
-        <v>126</v>
+      <c r="B29" s="28" t="s">
+        <v>97</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>2</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="I29" s="10">
         <v>1</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="O29" s="40" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="O29" s="32" t="s">
+        <v>38</v>
       </c>
       <c r="P29" s="10">
         <v>0</v>
       </c>
       <c r="T29" s="6" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="15"/>
-      <c r="B30" s="34" t="s">
-        <v>127</v>
+      <c r="B30" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="I30" s="17">
         <v>3</v>
       </c>
       <c r="J30" s="16" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="L30" s="16"/>
       <c r="M30" s="16"/>
       <c r="N30" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="O30" s="38" t="s">
-        <v>61</v>
+        <v>56</v>
+      </c>
+      <c r="O30" s="30" t="s">
+        <v>41</v>
       </c>
       <c r="P30" s="17">
         <v>1</v>
       </c>
-      <c r="Q30" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="R30" s="56"/>
+      <c r="Q30" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="R30" s="42"/>
       <c r="S30" s="16"/>
       <c r="T30" s="18" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="11">
-        <v>5</v>
-      </c>
-      <c r="B31" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I31" s="13"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="57"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="14"/>
-    </row>
-    <row r="32" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="62" t="s">
-        <v>131</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="15"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="42"/>
-      <c r="R38" s="56"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="18"/>
-    </row>
-    <row r="39" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="8">
-        <v>6</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>150</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Nhóm-10-Bảng-kế-hoạch.xlsx
+++ b/Nhóm-10-Bảng-kế-hoạch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Gia Pha\Tao-Cay-Gia-Pha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C02064-A90B-4BEA-BC49-BB36742FFDE9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9AB884-576D-4EE5-ABCA-58ED16A0ADDD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1398,6 +1398,15 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1406,15 +1415,6 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1440,7 +1440,7 @@
       </font>
       <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="4"/>
         </left>
@@ -1453,10 +1453,105 @@
         <bottom style="hair">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal style="hair">
-          <color auto="1"/>
-        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2151,117 +2246,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="4"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="4"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="hair">
-          <color auto="1"/>
-        </top>
-        <bottom style="hair">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="4"/>
-        </vertical>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2551,9 +2535,9 @@
     <tableColumn id="12" xr3:uid="{0921F172-22AF-4D48-BB40-4D1750CEFAA0}" name="Trần Gia Hân" dataDxfId="30"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Võ Thành Văn" dataDxfId="29"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="GHI CHÚ" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Ngày bắt đầu (dự kiến)" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Ngày kết thúc (dự kiến)" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Ngày bắt đầu (thực tế)" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Ngày bắt đầu (dự kiến)" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Ngày kết thúc (dự kiến)" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Ngày bắt đầu (thực tế)" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Ngày kết thúc (thực tế)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2561,29 +2545,29 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:T1048560" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:T1048560" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24">
   <autoFilter ref="A1:T1048560" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="THE HE" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HO VA TEN" dataDxfId="19"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="CHUC VU" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="DOB" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="NAM MAT" dataDxfId="16"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="GIOI TINH" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="TEN CHA" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="TEN ME" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="TT TRONG GD" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="TEN ANH" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="TEN CHI" dataDxfId="10"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" name="TEN EM TRAI" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="TEN EM GAI" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="HON NHAN" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="TEN VO - CHONG" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="SO CON" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="CON TRAI" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="CON GAI" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="CONG TRANG" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="PHAN MO" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="THE HE" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HO VA TEN" dataDxfId="22"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="CHUC VU" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="DOB" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="NAM MAT" dataDxfId="19"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="GIOI TINH" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="TEN CHA" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="TEN ME" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="TT TRONG GD" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="TEN ANH" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="TEN CHI" dataDxfId="13"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" name="TEN EM TRAI" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="TEN EM GAI" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="HON NHAN" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="TEN VO - CHONG" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="SO CON" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="CON TRAI" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="CON GAI" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="CONG TRANG" dataDxfId="5"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="PHAN MO" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium28" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2855,7 +2839,10 @@
   <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2871,19 +2858,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="21" customFormat="1" ht="34.200000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="92"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="95"/>
     </row>
     <row r="2" spans="1:22" s="21" customFormat="1" ht="43.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="77" t="s">
@@ -2919,7 +2906,7 @@
       <c r="K2" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="L2" s="94"/>
+      <c r="L2" s="91"/>
     </row>
     <row r="3" spans="1:22" s="22" customFormat="1" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="78">
@@ -2949,7 +2936,7 @@
       <c r="K3" s="85">
         <v>43375</v>
       </c>
-      <c r="L3" s="95"/>
+      <c r="L3" s="92"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2987,7 +2974,7 @@
       <c r="K4" s="86">
         <v>43384</v>
       </c>
-      <c r="L4" s="95"/>
+      <c r="L4" s="92"/>
     </row>
     <row r="5" spans="1:22" s="22" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="80">
@@ -3003,11 +2990,17 @@
       <c r="E5" s="58"/>
       <c r="F5" s="60"/>
       <c r="G5" s="60"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
+      <c r="H5" s="87">
+        <v>43377</v>
+      </c>
+      <c r="I5" s="87">
+        <v>43383</v>
+      </c>
+      <c r="J5" s="87">
+        <v>43384</v>
+      </c>
       <c r="K5" s="88"/>
-      <c r="L5" s="95"/>
+      <c r="L5" s="92"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -3035,11 +3028,15 @@
       <c r="G6" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
+      <c r="H6" s="87">
+        <v>43384</v>
+      </c>
+      <c r="I6" s="87">
+        <v>43390</v>
+      </c>
       <c r="J6" s="87"/>
       <c r="K6" s="88"/>
-      <c r="L6" s="95"/>
+      <c r="L6" s="92"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -3065,11 +3062,15 @@
       <c r="E7" s="58"/>
       <c r="F7" s="60"/>
       <c r="G7" s="60"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
+      <c r="H7" s="87">
+        <v>43391</v>
+      </c>
+      <c r="I7" s="87">
+        <v>43030</v>
+      </c>
       <c r="J7" s="87"/>
       <c r="K7" s="88"/>
-      <c r="L7" s="95"/>
+      <c r="L7" s="92"/>
     </row>
     <row r="8" spans="1:22" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="79">
@@ -3087,11 +3088,15 @@
         <v>119</v>
       </c>
       <c r="G8" s="60"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
+      <c r="H8" s="87">
+        <v>43396</v>
+      </c>
+      <c r="I8" s="87">
+        <v>43406</v>
+      </c>
       <c r="J8" s="87"/>
       <c r="K8" s="88"/>
-      <c r="L8" s="95"/>
+      <c r="L8" s="92"/>
     </row>
     <row r="9" spans="1:22" s="22" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="80">
@@ -3109,11 +3114,15 @@
       <c r="G9" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
+      <c r="H9" s="87">
+        <v>43404</v>
+      </c>
+      <c r="I9" s="87">
+        <v>43376</v>
+      </c>
       <c r="J9" s="87"/>
       <c r="K9" s="88"/>
-      <c r="L9" s="95"/>
+      <c r="L9" s="92"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -3139,11 +3148,15 @@
         <v>119</v>
       </c>
       <c r="G10" s="60"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
+      <c r="H10" s="87">
+        <v>43377</v>
+      </c>
+      <c r="I10" s="87">
+        <v>43379</v>
+      </c>
       <c r="J10" s="87"/>
       <c r="K10" s="88"/>
-      <c r="L10" s="95"/>
+      <c r="L10" s="92"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3171,11 +3184,17 @@
         <v>119</v>
       </c>
       <c r="G11" s="60"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
+      <c r="H11" s="87">
+        <v>43372</v>
+      </c>
+      <c r="I11" s="87">
+        <v>43376</v>
+      </c>
+      <c r="J11" s="87">
+        <v>43376</v>
+      </c>
       <c r="K11" s="88"/>
-      <c r="L11" s="95"/>
+      <c r="L11" s="92"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3201,11 +3220,15 @@
         <v>119</v>
       </c>
       <c r="G12" s="60"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
+      <c r="H12" s="87">
+        <v>43377</v>
+      </c>
+      <c r="I12" s="87">
+        <v>43379</v>
+      </c>
       <c r="J12" s="87"/>
       <c r="K12" s="88"/>
-      <c r="L12" s="95"/>
+      <c r="L12" s="92"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3233,11 +3256,15 @@
         <v>119</v>
       </c>
       <c r="G13" s="60"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
+      <c r="H13" s="87">
+        <v>43380</v>
+      </c>
+      <c r="I13" s="87">
+        <v>43385</v>
+      </c>
       <c r="J13" s="87"/>
       <c r="K13" s="88"/>
-      <c r="L13" s="95"/>
+      <c r="L13" s="92"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3265,11 +3292,15 @@
         <v>119</v>
       </c>
       <c r="G14" s="60"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
+      <c r="H14" s="87">
+        <v>43386</v>
+      </c>
+      <c r="I14" s="87">
+        <v>43390</v>
+      </c>
       <c r="J14" s="87"/>
       <c r="K14" s="88"/>
-      <c r="L14" s="95"/>
+      <c r="L14" s="92"/>
     </row>
     <row r="15" spans="1:22" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="79">
@@ -3285,11 +3316,15 @@
       </c>
       <c r="F15" s="64"/>
       <c r="G15" s="60"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
+      <c r="H15" s="87">
+        <v>43386</v>
+      </c>
+      <c r="I15" s="87">
+        <v>43391</v>
+      </c>
       <c r="J15" s="87"/>
       <c r="K15" s="88"/>
-      <c r="L15" s="95"/>
+      <c r="L15" s="92"/>
     </row>
     <row r="16" spans="1:22" s="22" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="80">
@@ -3307,11 +3342,15 @@
       <c r="G16" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="87"/>
-      <c r="I16" s="87"/>
+      <c r="H16" s="87">
+        <v>43385</v>
+      </c>
+      <c r="I16" s="87">
+        <v>43394</v>
+      </c>
       <c r="J16" s="87"/>
       <c r="K16" s="88"/>
-      <c r="L16" s="95"/>
+      <c r="L16" s="92"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3339,11 +3378,15 @@
       <c r="G17" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
+      <c r="H17" s="87">
+        <v>43392</v>
+      </c>
+      <c r="I17" s="87">
+        <v>43396</v>
+      </c>
       <c r="J17" s="87"/>
       <c r="K17" s="88"/>
-      <c r="L17" s="95"/>
+      <c r="L17" s="92"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3373,11 +3416,15 @@
       <c r="G18" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="H18" s="87">
+        <v>43399</v>
+      </c>
+      <c r="I18" s="87">
+        <v>43407</v>
+      </c>
       <c r="J18" s="87"/>
       <c r="K18" s="88"/>
-      <c r="L18" s="95"/>
+      <c r="L18" s="92"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3405,11 +3452,15 @@
       <c r="G19" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
+      <c r="H19" s="87">
+        <v>43397</v>
+      </c>
+      <c r="I19" s="87">
+        <v>43399</v>
+      </c>
       <c r="J19" s="87"/>
       <c r="K19" s="88"/>
-      <c r="L19" s="95"/>
+      <c r="L19" s="92"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3422,7 +3473,7 @@
       <c r="V19" s="2"/>
     </row>
     <row r="20" spans="1:22" s="22" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="93">
+      <c r="A20" s="90">
         <v>18</v>
       </c>
       <c r="B20" s="61"/>
@@ -3435,11 +3486,15 @@
       </c>
       <c r="F20" s="60"/>
       <c r="G20" s="60"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
+      <c r="H20" s="87">
+        <v>43400</v>
+      </c>
+      <c r="I20" s="87">
+        <v>43403</v>
+      </c>
       <c r="J20" s="87"/>
       <c r="K20" s="88"/>
-      <c r="L20" s="95"/>
+      <c r="L20" s="92"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3467,11 +3522,15 @@
       <c r="G21" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
+      <c r="H21" s="87">
+        <v>43404</v>
+      </c>
+      <c r="I21" s="87">
+        <v>43406</v>
+      </c>
       <c r="J21" s="87"/>
       <c r="K21" s="88"/>
-      <c r="L21" s="95"/>
+      <c r="L21" s="92"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3505,11 +3564,15 @@
       <c r="G22" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
+      <c r="H22" s="87">
+        <v>43407</v>
+      </c>
+      <c r="I22" s="87">
+        <v>43419</v>
+      </c>
       <c r="J22" s="87"/>
       <c r="K22" s="88"/>
-      <c r="L22" s="95"/>
+      <c r="L22" s="92"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3539,11 +3602,15 @@
       </c>
       <c r="F23" s="73"/>
       <c r="G23" s="60"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
+      <c r="H23" s="87">
+        <v>43407</v>
+      </c>
+      <c r="I23" s="87">
+        <v>43419</v>
+      </c>
       <c r="J23" s="87"/>
       <c r="K23" s="88"/>
-      <c r="L23" s="95"/>
+      <c r="L23" s="92"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3571,11 +3638,15 @@
         <v>119</v>
       </c>
       <c r="G24" s="60"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
+      <c r="H24" s="87">
+        <v>43407</v>
+      </c>
+      <c r="I24" s="87">
+        <v>43419</v>
+      </c>
       <c r="J24" s="87"/>
       <c r="K24" s="88"/>
-      <c r="L24" s="95"/>
+      <c r="L24" s="92"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3601,7 +3672,7 @@
       <c r="I25" s="87"/>
       <c r="J25" s="87"/>
       <c r="K25" s="88"/>
-      <c r="L25" s="95"/>
+      <c r="L25" s="92"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
